--- a/biology/Botanique/Pseudofumaria_alba/Pseudofumaria_alba.xlsx
+++ b/biology/Botanique/Pseudofumaria_alba/Pseudofumaria_alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudofumaria alba, encore appelée corydale jaunâtre ou corydale crème, est une espèce de plantes de la famille des Fumariaceae selon la classification classique, ou de celle des Papaveraceae selon la classification phylogénétique (APGIII).
 Synonymes
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,7 +554,9 @@
           <t>Habitat, aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la rencontre en Albanie, dans les pays de l'ex-Yougoslavie, en Grèce et en Italie.
 </t>
